--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H2">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I2">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J2">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.976664666666667</v>
+        <v>3.267668333333333</v>
       </c>
       <c r="N2">
-        <v>5.929994</v>
+        <v>9.803005000000001</v>
       </c>
       <c r="O2">
-        <v>0.8737289477891174</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="P2">
-        <v>0.8737289477891172</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="Q2">
-        <v>4.997421400248666</v>
+        <v>10.86119473161611</v>
       </c>
       <c r="R2">
-        <v>44.97679260223799</v>
+        <v>97.75075258454501</v>
       </c>
       <c r="S2">
-        <v>0.06812866517875653</v>
+        <v>0.1196596313464593</v>
       </c>
       <c r="T2">
-        <v>0.06812866517875651</v>
+        <v>0.1196596313464593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H3">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I3">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J3">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.857001</v>
       </c>
       <c r="O3">
-        <v>0.1262710522108828</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="P3">
-        <v>0.1262710522108827</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="Q3">
-        <v>0.722225880403</v>
+        <v>0.9495103538343335</v>
       </c>
       <c r="R3">
-        <v>6.500032923627</v>
+        <v>8.545593184509</v>
       </c>
       <c r="S3">
-        <v>0.009845934782878285</v>
+        <v>0.01046091721095184</v>
       </c>
       <c r="T3">
-        <v>0.009845934782878282</v>
+        <v>0.01046091721095184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>4.032266</v>
       </c>
       <c r="I4">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J4">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.976664666666667</v>
+        <v>3.267668333333333</v>
       </c>
       <c r="N4">
-        <v>5.929994</v>
+        <v>9.803005000000001</v>
       </c>
       <c r="O4">
-        <v>0.8737289477891174</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="P4">
-        <v>0.8737289477891172</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="Q4">
-        <v>2.656812576267111</v>
+        <v>4.392035973258889</v>
       </c>
       <c r="R4">
-        <v>23.911313186404</v>
+        <v>39.52832375933</v>
       </c>
       <c r="S4">
-        <v>0.03621969811115087</v>
+        <v>0.04838780800888433</v>
       </c>
       <c r="T4">
-        <v>0.03621969811115087</v>
+        <v>0.04838780800888431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>4.032266</v>
       </c>
       <c r="I5">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J5">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,10 +753,10 @@
         <v>0.857001</v>
       </c>
       <c r="O5">
-        <v>0.1262710522108828</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="P5">
-        <v>0.1262710522108827</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="Q5">
         <v>0.3839617771406667</v>
@@ -765,10 +765,10 @@
         <v>3.455655994266</v>
       </c>
       <c r="S5">
-        <v>0.005234460186798571</v>
+        <v>0.004230172263649959</v>
       </c>
       <c r="T5">
-        <v>0.005234460186798571</v>
+        <v>0.004230172263649959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H6">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I6">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J6">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.976664666666667</v>
+        <v>3.267668333333333</v>
       </c>
       <c r="N6">
-        <v>5.929994</v>
+        <v>9.803005000000001</v>
       </c>
       <c r="O6">
-        <v>0.8737289477891174</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="P6">
-        <v>0.8737289477891172</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="Q6">
-        <v>10.87385305888778</v>
+        <v>8.467025337253332</v>
       </c>
       <c r="R6">
-        <v>97.86467752998999</v>
+        <v>76.20322803528001</v>
       </c>
       <c r="S6">
-        <v>0.1482406695211055</v>
+        <v>0.09328265955011644</v>
       </c>
       <c r="T6">
-        <v>0.1482406695211055</v>
+        <v>0.09328265955011644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H7">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I7">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J7">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -877,22 +877,22 @@
         <v>0.857001</v>
       </c>
       <c r="O7">
-        <v>0.1262710522108828</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="P7">
-        <v>0.1262710522108827</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="Q7">
-        <v>1.571486066481667</v>
+        <v>0.7402066183839999</v>
       </c>
       <c r="R7">
-        <v>14.143374598335</v>
+        <v>6.661859565456</v>
       </c>
       <c r="S7">
-        <v>0.02142369823987291</v>
+        <v>0.008154982326042814</v>
       </c>
       <c r="T7">
-        <v>0.02142369823987291</v>
+        <v>0.008154982326042814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H8">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I8">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J8">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.976664666666667</v>
+        <v>3.267668333333333</v>
       </c>
       <c r="N8">
-        <v>5.929994</v>
+        <v>9.803005000000001</v>
       </c>
       <c r="O8">
-        <v>0.8737289477891174</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="P8">
-        <v>0.8737289477891172</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="Q8">
-        <v>0.6363318428226667</v>
+        <v>0.4206730858966666</v>
       </c>
       <c r="R8">
-        <v>5.726986585404</v>
+        <v>3.78605777307</v>
       </c>
       <c r="S8">
-        <v>0.008674961663246853</v>
+        <v>0.004634627001875185</v>
       </c>
       <c r="T8">
-        <v>0.008674961663246853</v>
+        <v>0.004634627001875185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H9">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I9">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J9">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.857001</v>
       </c>
       <c r="O9">
-        <v>0.1262710522108828</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="P9">
-        <v>0.1262710522108827</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="Q9">
-        <v>0.09196249197400001</v>
+        <v>0.036776198246</v>
       </c>
       <c r="R9">
-        <v>0.8276624277660001</v>
+        <v>0.330985784214</v>
       </c>
       <c r="S9">
-        <v>0.001253702924550045</v>
+        <v>0.0004051696367832145</v>
       </c>
       <c r="T9">
-        <v>0.001253702924550045</v>
+        <v>0.0004051696367832145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H10">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I10">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J10">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.976664666666667</v>
+        <v>3.267668333333333</v>
       </c>
       <c r="N10">
-        <v>5.929994</v>
+        <v>9.803005000000001</v>
       </c>
       <c r="O10">
-        <v>0.8737289477891174</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="P10">
-        <v>0.8737289477891172</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="Q10">
-        <v>26.13367595336089</v>
+        <v>54.053877403055</v>
       </c>
       <c r="R10">
-        <v>235.203083580248</v>
+        <v>486.4848966274951</v>
       </c>
       <c r="S10">
-        <v>0.3562742295112538</v>
+        <v>0.5955207693743138</v>
       </c>
       <c r="T10">
-        <v>0.3562742295112538</v>
+        <v>0.5955207693743136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H11">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I11">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J11">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1125,22 +1125,22 @@
         <v>0.857001</v>
       </c>
       <c r="O11">
-        <v>0.1262710522108828</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="P11">
-        <v>0.1262710522108827</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="Q11">
-        <v>3.776831211921333</v>
+        <v>4.725512941011</v>
       </c>
       <c r="R11">
-        <v>33.991480907292</v>
+        <v>42.529616469099</v>
       </c>
       <c r="S11">
-        <v>0.05148864753748048</v>
+        <v>0.05206178053306677</v>
       </c>
       <c r="T11">
-        <v>0.05148864753748048</v>
+        <v>0.05206178053306676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H12">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I12">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J12">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.976664666666667</v>
+        <v>3.267668333333333</v>
       </c>
       <c r="N12">
-        <v>5.929994</v>
+        <v>9.803005000000001</v>
       </c>
       <c r="O12">
-        <v>0.8737289477891174</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="P12">
-        <v>0.8737289477891172</v>
+        <v>0.9196059551936462</v>
       </c>
       <c r="Q12">
-        <v>18.79228078697977</v>
+        <v>5.275443571838888</v>
       </c>
       <c r="R12">
-        <v>169.130527082818</v>
+        <v>47.47899214655</v>
       </c>
       <c r="S12">
-        <v>0.2561907238036036</v>
+        <v>0.05812045991199725</v>
       </c>
       <c r="T12">
-        <v>0.2561907238036036</v>
+        <v>0.05812045991199724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H13">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I13">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J13">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1249,22 +1249,22 @@
         <v>0.857001</v>
       </c>
       <c r="O13">
-        <v>0.1262710522108828</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="P13">
-        <v>0.1262710522108827</v>
+        <v>0.08039404480635376</v>
       </c>
       <c r="Q13">
-        <v>2.715854927799667</v>
+        <v>0.4611912792566666</v>
       </c>
       <c r="R13">
-        <v>24.442694350197</v>
+        <v>4.15072151331</v>
       </c>
       <c r="S13">
-        <v>0.03702460853930242</v>
+        <v>0.005081022835859163</v>
       </c>
       <c r="T13">
-        <v>0.03702460853930242</v>
+        <v>0.005081022835859162</v>
       </c>
     </row>
   </sheetData>
